--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_14-36.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_14-36.xlsx
@@ -107,6 +107,9 @@
     <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
   </si>
   <si>
+    <t>LEVOCTIVAN 0.5MG/ML SYRUP 120 ML</t>
+  </si>
+  <si>
     <t>LYSE 0.65% NASAL DROPS 15 ML</t>
   </si>
   <si>
@@ -162,6 +165,9 @@
   </si>
   <si>
     <t>4:2</t>
+  </si>
+  <si>
+    <t>TIOCON 1% CREAM 20 GM</t>
   </si>
   <si>
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
@@ -1149,17 +1155,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1167,7 +1173,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1175,17 +1181,17 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1201,17 +1207,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1227,17 +1233,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1253,17 +1259,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1271,7 +1277,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1279,17 +1285,17 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" ht="25.5" customHeight="1">
@@ -1311,7 +1317,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1331,17 +1337,17 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" ht="25.5" customHeight="1">
@@ -1357,13 +1363,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1375,7 +1381,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1383,17 +1389,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1409,17 +1415,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1427,7 +1433,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1435,17 +1441,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1461,17 +1467,17 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1487,17 +1493,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1505,7 +1511,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1513,17 +1519,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1539,13 +1545,13 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>531</v>
+        <v>29</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1565,17 +1571,17 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>-96</v>
+        <v>23</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1">
@@ -1591,13 +1597,13 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>25</v>
+        <v>531</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1617,17 +1623,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>53</v>
+        <v>-96</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1643,17 +1649,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1661,7 +1667,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1675,7 +1681,7 @@
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
@@ -1687,7 +1693,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1695,17 +1701,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1721,13 +1727,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -1739,7 +1745,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1747,17 +1753,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1765,7 +1771,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1773,13 +1779,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1791,7 +1797,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1805,11 +1811,11 @@
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>-4</v>
+        <v>50</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1817,7 +1823,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1825,13 +1831,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1851,17 +1857,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>80</v>
+        <v>-4</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1869,7 +1875,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1877,51 +1883,103 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="46" ht="25.5" customHeight="1">
-      <c r="K46" s="10">
-        <v>2223.9000000000001</v>
-      </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="11">
+    <row r="46" ht="24.75" customHeight="1">
+      <c r="A46" s="6">
+        <v>43</v>
+      </c>
+      <c t="s" r="B46" s="7">
+        <v>69</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c t="s" r="H46" s="8">
         <v>70</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c t="s" r="F47" s="12">
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="9">
+        <v>80</v>
+      </c>
+      <c r="M46" s="9"/>
+      <c t="s" r="N46" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="A47" s="6">
+        <v>44</v>
+      </c>
+      <c t="s" r="B47" s="7">
         <v>71</v>
       </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="13"/>
-      <c t="s" r="I47" s="14">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c t="s" r="H47" s="8">
+        <v>9</v>
+      </c>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="9">
+        <v>20</v>
+      </c>
+      <c r="M47" s="9"/>
+      <c t="s" r="N47" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" ht="25.5" customHeight="1">
+      <c r="K48" s="10">
+        <v>2291.9000000000001</v>
+      </c>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+    </row>
+    <row r="49" ht="17.25" customHeight="1">
+      <c t="s" r="A49" s="11">
         <v>72</v>
       </c>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="14"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c t="s" r="F49" s="12">
+        <v>73</v>
+      </c>
+      <c r="G49" s="12"/>
+      <c r="H49" s="13"/>
+      <c t="s" r="I49" s="14">
+        <v>74</v>
+      </c>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="143">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2055,10 +2113,16 @@
     <mergeCell ref="B45:G45"/>
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="I49:N49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
